--- a/data/trans_camb/P42_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P42_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-14,33</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-14,33</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,49</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,49</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-10,67</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,9</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,91</t>
+          <t>-4,01</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-4,01</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,01</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-4,01</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-44,72; 0,0</t>
+          <t>-19,73; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-44,79; 0,0</t>
+          <t>-19,73; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 28,14</t>
+          <t>-19,73; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 13,17</t>
+          <t>-21,51; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,19; 0,0</t>
+          <t>-12,34; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 0,0</t>
+          <t>-12,34; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,18; -0,31</t>
+          <t>-12,34; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-34,67; -3,61</t>
+          <t>-12,34; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 8,01</t>
+          <t>-11,26; -1,28</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-11,26; -1,28</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-11,26; -1,28</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-10,63; -1,28</t>
         </is>
       </c>
     </row>
@@ -748,12 +802,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-24,43%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-50,08%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -768,7 +822,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-76,78%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +832,22 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-56,89%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -834,6 +903,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,51</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,42</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,17</t>
+          <t>-8,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-24,43</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-22,2</t>
+          <t>-12,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-8,39</t>
+          <t>-10,98</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,78</t>
+          <t>-14,72</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-17,51</t>
+          <t>-3,61</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-9,47</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-8,7</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-11,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 8,91</t>
+          <t>-13,67; 9,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,92; -1,06</t>
+          <t>-16,62; 1,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,24; -2,28</t>
+          <t>-17,42; 0,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 5,24</t>
+          <t>-20,07; -1,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,43; -12,65</t>
+          <t>-19,92; 8,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,33; -8,91</t>
+          <t>-26,24; -3,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 3,16</t>
+          <t>-24,8; -0,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,86; -9,59</t>
+          <t>-28,09; -6,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-26,59; -9,08</t>
+          <t>-12,49; 5,71</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-18,14; -3,19</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-17,15; -2,25</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-19,73; -5,68</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-29,85%</t>
+          <t>-25,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-75,93%</t>
+          <t>-76,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-81,95%</t>
+          <t>-78,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-43,73%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-87,78%</t>
+          <t>-35,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-79,79%</t>
+          <t>-87,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-39,37%</t>
+          <t>-74,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-31,82%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>-83,39%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-82,14%</t>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-76,59%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 169,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 36,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 6,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,6; 36,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -49,03</t>
+          <t>-89,27; 171,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-94,55; -35,15</t>
+          <t>-100,0; 30,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-70,03; 24,48</t>
+          <t>-100,0; 27,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-95,84; -55,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-95,28; -57,33</t>
+          <t>-75,83; 109,49</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -7,73</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-95,12; -5,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-16,18</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-18,05</t>
+          <t>-8,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-18,05</t>
+          <t>-8,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-8,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,7</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-10,48</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-13,97</t>
+          <t>-7,86</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-13,83</t>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-6,33</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-6,24</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-8,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,82; -6,27</t>
+          <t>-15,33; 1,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-31,47; -9,45</t>
+          <t>-18,41; -3,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,1; -9,22</t>
+          <t>-18,41; -3,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 4,23</t>
+          <t>-18,41; -3,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,17; -2,79</t>
+          <t>-8,78; 6,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,89; -1,32</t>
+          <t>-11,39; 0,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,68; -4,15</t>
+          <t>-11,06; 1,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,18; -8,25</t>
+          <t>-14,58; -3,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-22,37; -8,45</t>
+          <t>-8,08; 2,61</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-11,6; -2,09</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-11,37; -1,89</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-13,17; -4,38</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1344,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-89,63%</t>
+          <t>-59,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1185,32 +1359,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-34,95%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-72,56%</t>
+          <t>-13,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-68,88%</t>
+          <t>-63,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-66,52%</t>
+          <t>-61,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-88,66%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-87,81%</t>
+          <t>-31,82%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-78,55%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-77,52%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1412,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -49,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1238,32 +1427,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-73,12; 60,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-93,98; -18,25</t>
+          <t>-74,87; 207,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-93,31; -1,4</t>
+          <t>-96,05; 53,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-85,28; -31,73</t>
+          <t>-92,24; 68,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-97,16; -66,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-97,22; -65,02</t>
+          <t>-72,3; 69,21</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -25,51</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-95,28; -18,28</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,26</t>
+          <t>-10,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,14</t>
+          <t>-10,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-13,8</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-9,99</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-9,99</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-10,13</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-10,61</t>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-6,9</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-6,97</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-9,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 5,6</t>
+          <t>-12,28; 8,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,24; -3,02</t>
+          <t>-19,62; -2,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,0; -4,26</t>
+          <t>-19,86; -2,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 1,62</t>
+          <t>-22,59; -6,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,6; -2,82</t>
+          <t>-8,01; 3,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,21; -3,11</t>
+          <t>-9,99; 0,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 1,37</t>
+          <t>-10,0; -0,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -4,9</t>
+          <t>-11,91; -2,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -5,82</t>
+          <t>-7,28; 4,02</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-12,1; -2,42</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-12,12; -2,5</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-14,21; -5,97</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-23,57%</t>
+          <t>-11,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-74,22%</t>
+          <t>-74,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-80,6%</t>
+          <t>-75,07%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-45,08%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-74,38%</t>
+          <t>-34,6%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-74,32%</t>
+          <t>-68,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-33,81%</t>
+          <t>-68,81%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-74,29%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-77,78%</t>
+          <t>-19,14%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-72,12%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-72,78%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,95; 68,28</t>
+          <t>-62,25; 120,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-94,57; -23,39</t>
+          <t>-94,8; 2,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-95,66; -30,82</t>
+          <t>-95,13; -2,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-78,23; 28,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-94,46; -16,14</t>
+          <t>-87,71; 188,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-94,62; -20,33</t>
+          <t>-100,0; 97,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-63,59; 16,76</t>
+          <t>-100,0; 100,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-88,91; -42,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-90,44; -49,64</t>
+          <t>-61,5; 64,81</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-91,36; -27,58</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-91,71; -27,87</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-13,13</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-10,01</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-7,45</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-7,56</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-7,38</t>
+          <t>-3,35</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,23</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-3,31</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-4,11</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 1,91</t>
+          <t>-4,56; 2,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -1,87</t>
+          <t>-6,84; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,67; -1,87</t>
+          <t>-6,84; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 1,3</t>
+          <t>-6,84; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 4,56</t>
+          <t>-19,01; -1,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 6,59</t>
+          <t>-15,11; 2,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-16,2; -0,72</t>
+          <t>-15,55; 0,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-15,27; -0,61</t>
+          <t>-17,58; -1,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 0,45</t>
+          <t>-8,41; -0,17</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-8,03; 0,06</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-8,28; -0,06</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-9,37; -1,6</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1896,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-67,76%</t>
+          <t>-7,87%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1617,32 +1911,47 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-76,25%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-60,52%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-58,13%</t>
+          <t>-72,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-73,33%</t>
+          <t>-75,78%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-74,44%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-72,67%</t>
+          <t>-81,64%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-78,75%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-80,64%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1685,17 +1994,32 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 73,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 29,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 89,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1727,17 +2051,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1751,6 +2075,21 @@
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -1808,6 +2147,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -1861,6 +2215,21 @@
           <t>—%</t>
         </is>
       </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -1914,6 +2283,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-8,1</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-12,38</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-11,79</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-7,51</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-13,2</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-12,62</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-12,78</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-12,25</t>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-5,48</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-5,39</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-6,87</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-14,04; -3,13</t>
+          <t>-5,73; 1,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-18,19; -8,32</t>
+          <t>-9,1; -2,96</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-17,24; -6,92</t>
+          <t>-9,13; -3,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -2,51</t>
+          <t>-9,95; -4,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-17,95; -8,47</t>
+          <t>-6,22; 0,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-18,18; -8,25</t>
+          <t>-8,46; -2,68</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -4,32</t>
+          <t>-8,18; -2,42</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-16,52; -9,41</t>
+          <t>-9,64; -4,54</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -8,8</t>
+          <t>-5,37; -0,51</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-7,75; -3,69</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; -3,52</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; -5,41</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-57,08%</t>
+          <t>-35,1%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-87,23%</t>
+          <t>-84,14%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-83,09%</t>
+          <t>-85,36%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-45,13%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-79,34%</t>
+          <t>-39,57%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-75,88%</t>
+          <t>-75,72%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-51,01%</t>
+          <t>-71,66%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-83,3%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-79,82%</t>
+          <t>-37,46%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-79,8%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-78,48%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-76,75; -25,71</t>
+          <t>-66,26; 24,66</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-95,73; -70,06</t>
+          <t>-95,79; -52,37</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-94,56; -53,22</t>
+          <t>-96,06; -53,55</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-66,16; -17,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-89,73; -62,25</t>
+          <t>-69,59; 21,54</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-87,91; -56,12</t>
+          <t>-91,57; -46,26</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-66,43; -31,34</t>
+          <t>-87,74; -37,05</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-90,36; -71,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-87,98; -65,37</t>
+          <t>-62,94; -8,32</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-90,26; -61,55</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-88,89; -59,91</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
